--- a/Domain/Results/Benchmarks/ImprovementBenchmarks_Results.xlsx
+++ b/Domain/Results/Benchmarks/ImprovementBenchmarks_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\source\repos\QAP\Domain\Results\Benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952E59FA-E6D3-4D22-A0C1-3136DF58EA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246C7623-D5FF-403A-B00C-4501F8D111F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{6A217BFE-ADC4-461B-BFD6-8651FE474739}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{6A217BFE-ADC4-461B-BFD6-8651FE474739}"/>
   </bookViews>
   <sheets>
     <sheet name="ImprovementBenchmark" sheetId="4" r:id="rId1"/>
@@ -85,9 +85,6 @@
     <t>Gen0</t>
   </si>
   <si>
-    <t>Allocated[B]</t>
-  </si>
-  <si>
     <t>chr12a.dat</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
   </si>
   <si>
     <t>tai256c.dat</t>
-  </si>
-  <si>
-    <t>Mean[ns]</t>
   </si>
   <si>
     <t>Error[ns]</t>
@@ -149,6 +143,12 @@
   </si>
   <si>
     <t>0.7935</t>
+  </si>
+  <si>
+    <t>MeanNs</t>
+  </si>
+  <si>
+    <t>AllocatedB</t>
   </si>
 </sst>
 </file>
@@ -190,9 +190,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -244,11 +243,11 @@
     <tableColumn id="1" xr3:uid="{006B30B1-427A-4EED-ABD6-54B950C4F8C8}" uniqueName="1" name="Method" queryTableFieldId="1" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{8497C9EA-73A0-4DB0-A1D0-8758F9D0233C}" uniqueName="2" name="SolutionName" queryTableFieldId="2" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{61CBFB74-8EE8-403B-8CA3-2F8596BD6A2A}" uniqueName="3" name="NrOfSolutions" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{DC69FEF5-30D5-4F91-AEE8-8A36AFDB6043}" uniqueName="4" name="Mean[ns]" queryTableFieldId="11"/>
+    <tableColumn id="4" xr3:uid="{DC69FEF5-30D5-4F91-AEE8-8A36AFDB6043}" uniqueName="4" name="MeanNs" queryTableFieldId="11"/>
     <tableColumn id="5" xr3:uid="{EA2C7BEF-5E80-4598-99B3-4E5F1B5651F2}" uniqueName="5" name="Error[ns]" queryTableFieldId="12"/>
     <tableColumn id="6" xr3:uid="{B0B811BD-9FB5-4E31-92BF-3E8580CA2DDC}" uniqueName="6" name="StdDev[ns]" queryTableFieldId="13"/>
     <tableColumn id="8" xr3:uid="{22E612D5-7EEF-417E-B20E-BE9136C9F33F}" uniqueName="8" name="Gen0" queryTableFieldId="8" dataDxfId="0"/>
-    <tableColumn id="10" xr3:uid="{6D960E74-92A6-4E16-AC53-659785D0A773}" uniqueName="10" name="Allocated[B]" queryTableFieldId="10"/>
+    <tableColumn id="10" xr3:uid="{6D960E74-92A6-4E16-AC53-659785D0A773}" uniqueName="10" name="AllocatedB" queryTableFieldId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -553,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7BB097-2BC2-4810-9E4B-DE4875D36B69}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,27 +582,27 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -617,19 +616,19 @@
       <c r="F2">
         <v>90.27</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
+      <c r="G2" t="s">
+        <v>6</v>
       </c>
       <c r="H2">
         <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -643,19 +642,19 @@
       <c r="F3">
         <v>16.559999999999999</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>6</v>
+      <c r="G3" t="s">
+        <v>5</v>
       </c>
       <c r="H3">
         <v>1040</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -669,19 +668,19 @@
       <c r="F4">
         <v>15.2</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>6</v>
+      <c r="G4" t="s">
+        <v>5</v>
       </c>
       <c r="H4">
         <v>1040</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -695,19 +694,19 @@
       <c r="F5">
         <v>45.17</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>7</v>
+      <c r="G5" t="s">
+        <v>6</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -721,19 +720,19 @@
       <c r="F6">
         <v>3.13</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>7</v>
+      <c r="G6" t="s">
+        <v>6</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -747,19 +746,19 @@
       <c r="F7">
         <v>47.24</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>22</v>
+      <c r="G7" t="s">
+        <v>20</v>
       </c>
       <c r="H7">
         <v>2424</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
       </c>
       <c r="C8">
         <v>100</v>
@@ -773,19 +772,19 @@
       <c r="F8">
         <v>785.59</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>7</v>
+      <c r="G8" t="s">
+        <v>6</v>
       </c>
       <c r="H8">
         <v>3200</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
       </c>
       <c r="C9">
         <v>100</v>
@@ -799,19 +798,19 @@
       <c r="F9">
         <v>174.39</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>8</v>
+      <c r="G9" t="s">
+        <v>7</v>
       </c>
       <c r="H9">
         <v>10400</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
       </c>
       <c r="C10">
         <v>100</v>
@@ -825,19 +824,19 @@
       <c r="F10">
         <v>438.66</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>8</v>
+      <c r="G10" t="s">
+        <v>7</v>
       </c>
       <c r="H10">
         <v>10400</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
       </c>
       <c r="C11">
         <v>100</v>
@@ -851,19 +850,19 @@
       <c r="F11">
         <v>570.17999999999995</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>7</v>
+      <c r="G11" t="s">
+        <v>6</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
       </c>
       <c r="C12">
         <v>100</v>
@@ -877,19 +876,19 @@
       <c r="F12">
         <v>28.77</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>7</v>
+      <c r="G12" t="s">
+        <v>6</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
       </c>
       <c r="C13">
         <v>100</v>
@@ -903,19 +902,19 @@
       <c r="F13">
         <v>110.15</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>23</v>
+      <c r="G13" t="s">
+        <v>21</v>
       </c>
       <c r="H13">
         <v>21568</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
       </c>
       <c r="C14">
         <v>200</v>
@@ -929,19 +928,19 @@
       <c r="F14">
         <v>2837.69</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>7</v>
+      <c r="G14" t="s">
+        <v>6</v>
       </c>
       <c r="H14">
         <v>6400</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
       </c>
       <c r="C15">
         <v>200</v>
@@ -955,19 +954,19 @@
       <c r="F15">
         <v>256.07</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>9</v>
+      <c r="G15" t="s">
+        <v>8</v>
       </c>
       <c r="H15">
         <v>20800</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
       </c>
       <c r="C16">
         <v>200</v>
@@ -981,19 +980,19 @@
       <c r="F16">
         <v>484.99</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>9</v>
+      <c r="G16" t="s">
+        <v>8</v>
       </c>
       <c r="H16">
         <v>20800</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>5</v>
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
       </c>
       <c r="C17">
         <v>200</v>
@@ -1007,19 +1006,19 @@
       <c r="F17">
         <v>719.3</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>7</v>
+      <c r="G17" t="s">
+        <v>6</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>5</v>
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
       </c>
       <c r="C18">
         <v>200</v>
@@ -1033,19 +1032,19 @@
       <c r="F18">
         <v>55.17</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>7</v>
+      <c r="G18" t="s">
+        <v>6</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>5</v>
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
       </c>
       <c r="C19">
         <v>200</v>
@@ -1059,19 +1058,19 @@
       <c r="F19">
         <v>465.49</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>24</v>
+      <c r="G19" t="s">
+        <v>22</v>
       </c>
       <c r="H19">
         <v>42840</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>10</v>
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -1085,19 +1084,19 @@
       <c r="F20">
         <v>596.44000000000005</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>7</v>
+      <c r="G20" t="s">
+        <v>6</v>
       </c>
       <c r="H20">
         <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>10</v>
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
       </c>
       <c r="C21">
         <v>10</v>
@@ -1111,19 +1110,19 @@
       <c r="F21">
         <v>80.02</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>11</v>
+      <c r="G21" t="s">
+        <v>10</v>
       </c>
       <c r="H21">
         <v>1600</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>10</v>
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
       </c>
       <c r="C22">
         <v>10</v>
@@ -1137,19 +1136,19 @@
       <c r="F22">
         <v>108.6</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>11</v>
+      <c r="G22" t="s">
+        <v>10</v>
       </c>
       <c r="H22">
         <v>1600</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>10</v>
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
       </c>
       <c r="C23">
         <v>10</v>
@@ -1163,19 +1162,19 @@
       <c r="F23">
         <v>298.8</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>7</v>
+      <c r="G23" t="s">
+        <v>6</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>10</v>
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
       </c>
       <c r="C24">
         <v>10</v>
@@ -1189,19 +1188,19 @@
       <c r="F24">
         <v>1.48</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>7</v>
+      <c r="G24" t="s">
+        <v>6</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>10</v>
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
       </c>
       <c r="C25">
         <v>10</v>
@@ -1215,19 +1214,19 @@
       <c r="F25">
         <v>35.57</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>22</v>
+      <c r="G25" t="s">
+        <v>20</v>
       </c>
       <c r="H25">
         <v>2424</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>10</v>
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
       </c>
       <c r="C26">
         <v>100</v>
@@ -1241,19 +1240,19 @@
       <c r="F26">
         <v>5327.7</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>7</v>
+      <c r="G26" t="s">
+        <v>6</v>
       </c>
       <c r="H26">
         <v>3203</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>10</v>
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
       </c>
       <c r="C27">
         <v>100</v>
@@ -1267,19 +1266,19 @@
       <c r="F27">
         <v>898.41</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>7</v>
+      <c r="G27" t="s">
+        <v>6</v>
       </c>
       <c r="H27">
         <v>16000</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>10</v>
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
       </c>
       <c r="C28">
         <v>100</v>
@@ -1293,19 +1292,19 @@
       <c r="F28">
         <v>517.41999999999996</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>7</v>
+      <c r="G28" t="s">
+        <v>6</v>
       </c>
       <c r="H28">
         <v>16000</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>10</v>
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
       </c>
       <c r="C29">
         <v>100</v>
@@ -1319,19 +1318,19 @@
       <c r="F29">
         <v>2538.19</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>7</v>
+      <c r="G29" t="s">
+        <v>6</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>10</v>
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
       </c>
       <c r="C30">
         <v>100</v>
@@ -1345,19 +1344,19 @@
       <c r="F30">
         <v>29.01</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>7</v>
+      <c r="G30" t="s">
+        <v>6</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>10</v>
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
       </c>
       <c r="C31">
         <v>100</v>
@@ -1371,19 +1370,19 @@
       <c r="F31">
         <v>41.67</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>23</v>
+      <c r="G31" t="s">
+        <v>21</v>
       </c>
       <c r="H31">
         <v>21568</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>10</v>
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
       </c>
       <c r="C32">
         <v>200</v>
@@ -1397,19 +1396,19 @@
       <c r="F32">
         <v>27295.7</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>7</v>
+      <c r="G32" t="s">
+        <v>6</v>
       </c>
       <c r="H32">
         <v>6406</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>10</v>
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
       </c>
       <c r="C33">
         <v>200</v>
@@ -1423,19 +1422,19 @@
       <c r="F33">
         <v>943.62</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>7</v>
+      <c r="G33" t="s">
+        <v>6</v>
       </c>
       <c r="H33">
         <v>32001</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>10</v>
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
       </c>
       <c r="C34">
         <v>200</v>
@@ -1449,19 +1448,19 @@
       <c r="F34">
         <v>1034.82</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>7</v>
+      <c r="G34" t="s">
+        <v>6</v>
       </c>
       <c r="H34">
         <v>32001</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>10</v>
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
       </c>
       <c r="C35">
         <v>200</v>
@@ -1475,19 +1474,19 @@
       <c r="F35">
         <v>7393.72</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>7</v>
+      <c r="G35" t="s">
+        <v>6</v>
       </c>
       <c r="H35">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>10</v>
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
       </c>
       <c r="C36">
         <v>200</v>
@@ -1501,19 +1500,19 @@
       <c r="F36">
         <v>128.32</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>7</v>
+      <c r="G36" t="s">
+        <v>6</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>10</v>
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
       </c>
       <c r="C37">
         <v>200</v>
@@ -1527,19 +1526,19 @@
       <c r="F37">
         <v>231.86</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>24</v>
+      <c r="G37" t="s">
+        <v>22</v>
       </c>
       <c r="H37">
         <v>42840</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>12</v>
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
       </c>
       <c r="C38">
         <v>10</v>
@@ -1553,19 +1552,19 @@
       <c r="F38">
         <v>887349.76000000001</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>7</v>
+      <c r="G38" t="s">
+        <v>6</v>
       </c>
       <c r="H38">
         <v>696</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>12</v>
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
       </c>
       <c r="C39">
         <v>10</v>
@@ -1579,19 +1578,19 @@
       <c r="F39">
         <v>5039.22</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>7</v>
+      <c r="G39" t="s">
+        <v>6</v>
       </c>
       <c r="H39">
         <v>10804</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>12</v>
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
       </c>
       <c r="C40">
         <v>10</v>
@@ -1605,19 +1604,19 @@
       <c r="F40">
         <v>12288.49</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>7</v>
+      <c r="G40" t="s">
+        <v>6</v>
       </c>
       <c r="H40">
         <v>10804</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>12</v>
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
       </c>
       <c r="C41">
         <v>10</v>
@@ -1631,19 +1630,19 @@
       <c r="F41">
         <v>320950.71000000002</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>7</v>
+      <c r="G41" t="s">
+        <v>6</v>
       </c>
       <c r="H41">
         <v>376</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>12</v>
+      <c r="A42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
       </c>
       <c r="C42">
         <v>10</v>
@@ -1657,19 +1656,19 @@
       <c r="F42">
         <v>26.02</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>7</v>
+      <c r="G42" t="s">
+        <v>6</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>12</v>
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
       </c>
       <c r="C43">
         <v>10</v>
@@ -1683,19 +1682,19 @@
       <c r="F43">
         <v>15.94</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>22</v>
+      <c r="G43" t="s">
+        <v>20</v>
       </c>
       <c r="H43">
         <v>2424</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>12</v>
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
       </c>
       <c r="C44">
         <v>100</v>
@@ -1709,19 +1708,19 @@
       <c r="F44">
         <v>6836703.3499999996</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>7</v>
+      <c r="G44" t="s">
+        <v>6</v>
       </c>
       <c r="H44">
         <v>4328</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>12</v>
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
       </c>
       <c r="C45">
         <v>100</v>
@@ -1735,19 +1734,19 @@
       <c r="F45">
         <v>75374.89</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>7</v>
+      <c r="G45" t="s">
+        <v>6</v>
       </c>
       <c r="H45">
         <v>108035</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>12</v>
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
       </c>
       <c r="C46">
         <v>100</v>
@@ -1761,19 +1760,19 @@
       <c r="F46">
         <v>44056.04</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>7</v>
+      <c r="G46" t="s">
+        <v>6</v>
       </c>
       <c r="H46">
         <v>108035</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>12</v>
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
       </c>
       <c r="C47">
         <v>100</v>
@@ -1787,19 +1786,19 @@
       <c r="F47">
         <v>11642785.25</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>7</v>
+      <c r="G47" t="s">
+        <v>6</v>
       </c>
       <c r="H47">
         <v>1128</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>12</v>
+      <c r="A48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
       </c>
       <c r="C48">
         <v>100</v>
@@ -1813,19 +1812,19 @@
       <c r="F48">
         <v>600.03</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>7</v>
+      <c r="G48" t="s">
+        <v>6</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>12</v>
+      <c r="A49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
       </c>
       <c r="C49">
         <v>100</v>
@@ -1839,19 +1838,19 @@
       <c r="F49">
         <v>213.03</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>23</v>
+      <c r="G49" t="s">
+        <v>21</v>
       </c>
       <c r="H49">
         <v>21568</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>12</v>
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
       </c>
       <c r="C50">
         <v>200</v>
@@ -1865,19 +1864,19 @@
       <c r="F50">
         <v>17067027.57</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>7</v>
+      <c r="G50" t="s">
+        <v>6</v>
       </c>
       <c r="H50">
         <v>7528</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>12</v>
+      <c r="A51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
       </c>
       <c r="C51">
         <v>200</v>
@@ -1891,19 +1890,19 @@
       <c r="F51">
         <v>322411.24</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>7</v>
+      <c r="G51" t="s">
+        <v>6</v>
       </c>
       <c r="H51">
         <v>216113</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>12</v>
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
       </c>
       <c r="C52">
         <v>200</v>
@@ -1917,19 +1916,19 @@
       <c r="F52">
         <v>199846.39</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>7</v>
+      <c r="G52" t="s">
+        <v>6</v>
       </c>
       <c r="H52">
         <v>216113</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>12</v>
+      <c r="A53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
       </c>
       <c r="C53">
         <v>200</v>
@@ -1943,19 +1942,19 @@
       <c r="F53">
         <v>41932434.310000002</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>7</v>
+      <c r="G53" t="s">
+        <v>6</v>
       </c>
       <c r="H53">
         <v>1128</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>12</v>
+      <c r="A54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
       </c>
       <c r="C54">
         <v>200</v>
@@ -1969,19 +1968,19 @@
       <c r="F54">
         <v>869.84</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>7</v>
+      <c r="G54" t="s">
+        <v>6</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>12</v>
+      <c r="A55" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
       </c>
       <c r="C55">
         <v>200</v>
@@ -1995,8 +1994,8 @@
       <c r="F55">
         <v>473.56</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>25</v>
+      <c r="G55" t="s">
+        <v>23</v>
       </c>
       <c r="H55">
         <v>42842</v>
@@ -2040,7 +2039,7 @@
         <v>NrOfSolutions</v>
       </c>
       <c r="D1" t="str">
-        <v>Mean[ns]</v>
+        <v>MeanNs</v>
       </c>
       <c r="E1" t="str">
         <v>Error[ns]</v>
@@ -2052,7 +2051,7 @@
         <v>Gen0</v>
       </c>
       <c r="H1" t="str">
-        <v>Allocated[B]</v>
+        <v>AllocatedB</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3469,7 +3468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEE3AB7-108E-46A7-BAF0-EAC09482862E}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
@@ -3493,7 +3492,7 @@
         <v>NrOfSolutions</v>
       </c>
       <c r="D1" t="str">
-        <v>Mean[ns]</v>
+        <v>MeanNs</v>
       </c>
       <c r="E1" t="str">
         <v>Error[ns]</v>
@@ -3505,7 +3504,7 @@
         <v>Gen0</v>
       </c>
       <c r="H1" t="str">
-        <v>Allocated[B]</v>
+        <v>AllocatedB</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
